--- a/7/1/1/3/1/Series desestacionalizadas 1996 a 2021 - Trimestral.xlsx
+++ b/7/1/1/3/1/Series desestacionalizadas 1996 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <si>
     <t>Serie</t>
   </si>
@@ -422,6 +422,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -779,7 +782,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI102"/>
+  <dimension ref="A1:AI103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4743,19 +4746,19 @@
         <v>98</v>
       </c>
       <c r="D50">
-        <v>4488</v>
+        <v>4489</v>
       </c>
       <c r="E50">
-        <v>4255</v>
+        <v>4256</v>
       </c>
       <c r="F50">
         <v>233</v>
       </c>
       <c r="G50">
-        <v>2474</v>
+        <v>2471</v>
       </c>
       <c r="H50">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="K50">
         <v>115</v>
@@ -4767,7 +4770,7 @@
         <v>320</v>
       </c>
       <c r="N50">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="Q50">
         <v>173</v>
@@ -4776,22 +4779,22 @@
         <v>343</v>
       </c>
       <c r="S50">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="T50">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="U50">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="X50">
         <v>1287</v>
       </c>
       <c r="Y50">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="Z50">
-        <v>3076</v>
+        <v>3078</v>
       </c>
       <c r="AC50">
         <v>1517</v>
@@ -4803,13 +4806,13 @@
         <v>893</v>
       </c>
       <c r="AG50">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="AH50">
         <v>161</v>
       </c>
       <c r="AI50">
-        <v>24158</v>
+        <v>24154</v>
       </c>
     </row>
     <row r="51" spans="1:35">
@@ -4832,7 +4835,7 @@
         <v>263</v>
       </c>
       <c r="G51">
-        <v>2557</v>
+        <v>2562</v>
       </c>
       <c r="H51">
         <v>939</v>
@@ -4847,7 +4850,7 @@
         <v>307</v>
       </c>
       <c r="N51">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="Q51">
         <v>177</v>
@@ -4862,7 +4865,7 @@
         <v>1567</v>
       </c>
       <c r="U51">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="X51">
         <v>1269</v>
@@ -4871,7 +4874,7 @@
         <v>762</v>
       </c>
       <c r="Z51">
-        <v>3236</v>
+        <v>3237</v>
       </c>
       <c r="AC51">
         <v>1561</v>
@@ -4889,7 +4892,7 @@
         <v>162</v>
       </c>
       <c r="AI51">
-        <v>23905</v>
+        <v>23908</v>
       </c>
     </row>
     <row r="52" spans="1:35">
@@ -4912,7 +4915,7 @@
         <v>315</v>
       </c>
       <c r="G52">
-        <v>2620</v>
+        <v>2618</v>
       </c>
       <c r="H52">
         <v>979</v>
@@ -4924,10 +4927,10 @@
         <v>158</v>
       </c>
       <c r="M52">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N52">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="Q52">
         <v>187</v>
@@ -4951,7 +4954,7 @@
         <v>780</v>
       </c>
       <c r="Z52">
-        <v>3372</v>
+        <v>3371</v>
       </c>
       <c r="AC52">
         <v>1611</v>
@@ -4969,7 +4972,7 @@
         <v>133</v>
       </c>
       <c r="AI52">
-        <v>23012</v>
+        <v>23008</v>
       </c>
     </row>
     <row r="53" spans="1:35">
@@ -4983,16 +4986,16 @@
         <v>130</v>
       </c>
       <c r="D53">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="E53">
         <v>1661</v>
       </c>
       <c r="F53">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G53">
-        <v>2769</v>
+        <v>2768</v>
       </c>
       <c r="H53">
         <v>1041</v>
@@ -5001,13 +5004,13 @@
         <v>60</v>
       </c>
       <c r="L53">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M53">
         <v>288</v>
       </c>
       <c r="N53">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="Q53">
         <v>156</v>
@@ -5022,7 +5025,7 @@
         <v>1375</v>
       </c>
       <c r="U53">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="X53">
         <v>1337</v>
@@ -5031,7 +5034,7 @@
         <v>793</v>
       </c>
       <c r="Z53">
-        <v>3584</v>
+        <v>3583</v>
       </c>
       <c r="AC53">
         <v>1652</v>
@@ -5049,7 +5052,7 @@
         <v>117</v>
       </c>
       <c r="AI53">
-        <v>22823</v>
+        <v>22819</v>
       </c>
     </row>
     <row r="54" spans="1:35">
@@ -5057,22 +5060,22 @@
         <v>87</v>
       </c>
       <c r="B54">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C54">
         <v>126</v>
       </c>
       <c r="D54">
-        <v>2182</v>
+        <v>2183</v>
       </c>
       <c r="E54">
         <v>1912</v>
       </c>
       <c r="F54">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G54">
-        <v>2681</v>
+        <v>2678</v>
       </c>
       <c r="H54">
         <v>1124</v>
@@ -5087,19 +5090,19 @@
         <v>231</v>
       </c>
       <c r="N54">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="Q54">
         <v>145</v>
       </c>
       <c r="R54">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="S54">
         <v>839</v>
       </c>
       <c r="T54">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="U54">
         <v>2216</v>
@@ -5111,7 +5114,7 @@
         <v>791</v>
       </c>
       <c r="Z54">
-        <v>3630</v>
+        <v>3632</v>
       </c>
       <c r="AC54">
         <v>1567</v>
@@ -5129,7 +5132,7 @@
         <v>122</v>
       </c>
       <c r="AI54">
-        <v>23107</v>
+        <v>23104</v>
       </c>
     </row>
     <row r="55" spans="1:35">
@@ -5137,7 +5140,7 @@
         <v>88</v>
       </c>
       <c r="B55">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C55">
         <v>124</v>
@@ -5152,7 +5155,7 @@
         <v>248</v>
       </c>
       <c r="G55">
-        <v>2635</v>
+        <v>2640</v>
       </c>
       <c r="H55">
         <v>1088</v>
@@ -5167,7 +5170,7 @@
         <v>213</v>
       </c>
       <c r="N55">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="Q55">
         <v>143</v>
@@ -5179,10 +5182,10 @@
         <v>908</v>
       </c>
       <c r="T55">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="U55">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="X55">
         <v>1225</v>
@@ -5191,7 +5194,7 @@
         <v>760</v>
       </c>
       <c r="Z55">
-        <v>3599</v>
+        <v>3600</v>
       </c>
       <c r="AC55">
         <v>1562</v>
@@ -5209,7 +5212,7 @@
         <v>110</v>
       </c>
       <c r="AI55">
-        <v>23602</v>
+        <v>23606</v>
       </c>
     </row>
     <row r="56" spans="1:35">
@@ -5232,7 +5235,7 @@
         <v>228</v>
       </c>
       <c r="G56">
-        <v>2695</v>
+        <v>2692</v>
       </c>
       <c r="H56">
         <v>1084</v>
@@ -5247,7 +5250,7 @@
         <v>232</v>
       </c>
       <c r="N56">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="Q56">
         <v>153</v>
@@ -5259,19 +5262,19 @@
         <v>723</v>
       </c>
       <c r="T56">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="U56">
         <v>2187</v>
       </c>
       <c r="X56">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="Y56">
         <v>781</v>
       </c>
       <c r="Z56">
-        <v>3686</v>
+        <v>3685</v>
       </c>
       <c r="AC56">
         <v>1567</v>
@@ -5283,13 +5286,13 @@
         <v>1124</v>
       </c>
       <c r="AG56">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="AH56">
         <v>95</v>
       </c>
       <c r="AI56">
-        <v>24268</v>
+        <v>24264</v>
       </c>
     </row>
     <row r="57" spans="1:35">
@@ -5309,10 +5312,10 @@
         <v>3919</v>
       </c>
       <c r="F57">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G57">
-        <v>2825</v>
+        <v>2823</v>
       </c>
       <c r="H57">
         <v>1066</v>
@@ -5324,10 +5327,10 @@
         <v>108</v>
       </c>
       <c r="M57">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N57">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="Q57">
         <v>176</v>
@@ -5345,13 +5348,13 @@
         <v>2307</v>
       </c>
       <c r="X57">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="Y57">
         <v>809</v>
       </c>
       <c r="Z57">
-        <v>3664</v>
+        <v>3663</v>
       </c>
       <c r="AC57">
         <v>1578</v>
@@ -5369,7 +5372,7 @@
         <v>104</v>
       </c>
       <c r="AI57">
-        <v>25501</v>
+        <v>25496</v>
       </c>
     </row>
     <row r="58" spans="1:35">
@@ -5380,7 +5383,7 @@
         <v>796</v>
       </c>
       <c r="C58">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D58">
         <v>4046</v>
@@ -5392,10 +5395,10 @@
         <v>250</v>
       </c>
       <c r="G58">
-        <v>2615</v>
+        <v>2612</v>
       </c>
       <c r="H58">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="K58">
         <v>82</v>
@@ -5407,7 +5410,7 @@
         <v>271</v>
       </c>
       <c r="N58">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="Q58">
         <v>170</v>
@@ -5416,22 +5419,22 @@
         <v>425</v>
       </c>
       <c r="S58">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="T58">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="U58">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="X58">
         <v>1165</v>
       </c>
       <c r="Y58">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="Z58">
-        <v>3751</v>
+        <v>3752</v>
       </c>
       <c r="AC58">
         <v>1671</v>
@@ -5449,7 +5452,7 @@
         <v>125</v>
       </c>
       <c r="AI58">
-        <v>25934</v>
+        <v>25931</v>
       </c>
     </row>
     <row r="59" spans="1:35">
@@ -5472,7 +5475,7 @@
         <v>344</v>
       </c>
       <c r="G59">
-        <v>2995</v>
+        <v>3000</v>
       </c>
       <c r="H59">
         <v>1201</v>
@@ -5481,13 +5484,13 @@
         <v>91</v>
       </c>
       <c r="L59">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M59">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="N59">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="Q59">
         <v>209</v>
@@ -5499,10 +5502,10 @@
         <v>790</v>
       </c>
       <c r="T59">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="U59">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="X59">
         <v>1384</v>
@@ -5511,7 +5514,7 @@
         <v>907</v>
       </c>
       <c r="Z59">
-        <v>3829</v>
+        <v>3830</v>
       </c>
       <c r="AC59">
         <v>1707</v>
@@ -5529,7 +5532,7 @@
         <v>189</v>
       </c>
       <c r="AI59">
-        <v>27002</v>
+        <v>27006</v>
       </c>
     </row>
     <row r="60" spans="1:35">
@@ -5552,7 +5555,7 @@
         <v>390</v>
       </c>
       <c r="G60">
-        <v>3182</v>
+        <v>3179</v>
       </c>
       <c r="H60">
         <v>1177</v>
@@ -5564,10 +5567,10 @@
         <v>159</v>
       </c>
       <c r="M60">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="N60">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="Q60">
         <v>223</v>
@@ -5579,10 +5582,10 @@
         <v>889</v>
       </c>
       <c r="T60">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="U60">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="X60">
         <v>1557</v>
@@ -5591,7 +5594,7 @@
         <v>933</v>
       </c>
       <c r="Z60">
-        <v>3901</v>
+        <v>3900</v>
       </c>
       <c r="AC60">
         <v>1820</v>
@@ -5603,13 +5606,13 @@
         <v>1217</v>
       </c>
       <c r="AG60">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="AH60">
         <v>167</v>
       </c>
       <c r="AI60">
-        <v>28803</v>
+        <v>28799</v>
       </c>
     </row>
     <row r="61" spans="1:35">
@@ -5632,7 +5635,7 @@
         <v>372</v>
       </c>
       <c r="G61">
-        <v>3191</v>
+        <v>3189</v>
       </c>
       <c r="H61">
         <v>1147</v>
@@ -5647,7 +5650,7 @@
         <v>360</v>
       </c>
       <c r="N61">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="Q61">
         <v>221</v>
@@ -5656,13 +5659,13 @@
         <v>518</v>
       </c>
       <c r="S61">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="T61">
         <v>1772</v>
       </c>
       <c r="U61">
-        <v>2858</v>
+        <v>2857</v>
       </c>
       <c r="X61">
         <v>1487</v>
@@ -5683,13 +5686,13 @@
         <v>1238</v>
       </c>
       <c r="AG61">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="AH61">
         <v>146</v>
       </c>
       <c r="AI61">
-        <v>29682</v>
+        <v>29677</v>
       </c>
     </row>
     <row r="62" spans="1:35">
@@ -5703,7 +5706,7 @@
         <v>190</v>
       </c>
       <c r="D62">
-        <v>5112</v>
+        <v>5113</v>
       </c>
       <c r="E62">
         <v>4716</v>
@@ -5712,13 +5715,13 @@
         <v>396</v>
       </c>
       <c r="G62">
-        <v>3218</v>
+        <v>3214</v>
       </c>
       <c r="H62">
         <v>1197</v>
       </c>
       <c r="K62">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L62">
         <v>141</v>
@@ -5727,22 +5730,22 @@
         <v>372</v>
       </c>
       <c r="N62">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="Q62">
         <v>295</v>
       </c>
       <c r="R62">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="S62">
         <v>825</v>
       </c>
       <c r="T62">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="U62">
-        <v>2940</v>
+        <v>2939</v>
       </c>
       <c r="X62">
         <v>1413</v>
@@ -5751,7 +5754,7 @@
         <v>988</v>
       </c>
       <c r="Z62">
-        <v>4328</v>
+        <v>4329</v>
       </c>
       <c r="AC62">
         <v>1941</v>
@@ -5769,7 +5772,7 @@
         <v>126</v>
       </c>
       <c r="AI62">
-        <v>30153</v>
+        <v>30148</v>
       </c>
     </row>
     <row r="63" spans="1:35">
@@ -5783,7 +5786,7 @@
         <v>180</v>
       </c>
       <c r="D63">
-        <v>4474</v>
+        <v>4473</v>
       </c>
       <c r="E63">
         <v>3999</v>
@@ -5792,7 +5795,7 @@
         <v>474</v>
       </c>
       <c r="G63">
-        <v>3288</v>
+        <v>3296</v>
       </c>
       <c r="H63">
         <v>1230</v>
@@ -5807,7 +5810,7 @@
         <v>370</v>
       </c>
       <c r="N63">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="Q63">
         <v>245</v>
@@ -5819,10 +5822,10 @@
         <v>891</v>
       </c>
       <c r="T63">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="U63">
-        <v>2985</v>
+        <v>2984</v>
       </c>
       <c r="X63">
         <v>1415</v>
@@ -5831,7 +5834,7 @@
         <v>991</v>
       </c>
       <c r="Z63">
-        <v>4430</v>
+        <v>4431</v>
       </c>
       <c r="AC63">
         <v>1979</v>
@@ -5849,7 +5852,7 @@
         <v>132</v>
       </c>
       <c r="AI63">
-        <v>30092</v>
+        <v>30099</v>
       </c>
     </row>
     <row r="64" spans="1:35">
@@ -5869,10 +5872,10 @@
         <v>3382</v>
       </c>
       <c r="F64">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="G64">
-        <v>3463</v>
+        <v>3459</v>
       </c>
       <c r="H64">
         <v>1282</v>
@@ -5887,7 +5890,7 @@
         <v>317</v>
       </c>
       <c r="N64">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="Q64">
         <v>222</v>
@@ -5899,19 +5902,19 @@
         <v>902</v>
       </c>
       <c r="T64">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="U64">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="X64">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="Y64">
         <v>992</v>
       </c>
       <c r="Z64">
-        <v>4562</v>
+        <v>4561</v>
       </c>
       <c r="AC64">
         <v>2026</v>
@@ -5929,7 +5932,7 @@
         <v>162</v>
       </c>
       <c r="AI64">
-        <v>30269</v>
+        <v>30263</v>
       </c>
     </row>
     <row r="65" spans="1:35">
@@ -5949,13 +5952,13 @@
         <v>4126</v>
       </c>
       <c r="F65">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G65">
-        <v>3428</v>
+        <v>3425</v>
       </c>
       <c r="H65">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="K65">
         <v>86</v>
@@ -5967,13 +5970,13 @@
         <v>300</v>
       </c>
       <c r="N65">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="Q65">
         <v>197</v>
       </c>
       <c r="R65">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="S65">
         <v>1007</v>
@@ -5991,7 +5994,7 @@
         <v>986</v>
       </c>
       <c r="Z65">
-        <v>4644</v>
+        <v>4643</v>
       </c>
       <c r="AC65">
         <v>2056</v>
@@ -6003,13 +6006,13 @@
         <v>1326</v>
       </c>
       <c r="AG65">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="AH65">
         <v>164</v>
       </c>
       <c r="AI65">
-        <v>31376</v>
+        <v>31370</v>
       </c>
     </row>
     <row r="66" spans="1:35">
@@ -6023,22 +6026,22 @@
         <v>119</v>
       </c>
       <c r="D66">
-        <v>4399</v>
+        <v>4400</v>
       </c>
       <c r="E66">
         <v>3891</v>
       </c>
       <c r="F66">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G66">
-        <v>3399</v>
+        <v>3395</v>
       </c>
       <c r="H66">
         <v>1333</v>
       </c>
       <c r="K66">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L66">
         <v>188</v>
@@ -6047,10 +6050,10 @@
         <v>277</v>
       </c>
       <c r="N66">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="Q66">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="R66">
         <v>600</v>
@@ -6059,7 +6062,7 @@
         <v>941</v>
       </c>
       <c r="T66">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="U66">
         <v>3406</v>
@@ -6071,7 +6074,7 @@
         <v>1035</v>
       </c>
       <c r="Z66">
-        <v>4881</v>
+        <v>4882</v>
       </c>
       <c r="AC66">
         <v>2148</v>
@@ -6083,13 +6086,13 @@
         <v>1340</v>
       </c>
       <c r="AG66">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="AH66">
         <v>170</v>
       </c>
       <c r="AI66">
-        <v>31890</v>
+        <v>31884</v>
       </c>
     </row>
     <row r="67" spans="1:35">
@@ -6097,13 +6100,13 @@
         <v>100</v>
       </c>
       <c r="B67">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="C67">
         <v>98</v>
       </c>
       <c r="D67">
-        <v>3937</v>
+        <v>3936</v>
       </c>
       <c r="E67">
         <v>3462</v>
@@ -6112,13 +6115,13 @@
         <v>475</v>
       </c>
       <c r="G67">
-        <v>3507</v>
+        <v>3515</v>
       </c>
       <c r="H67">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="K67">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L67">
         <v>177</v>
@@ -6127,13 +6130,13 @@
         <v>278</v>
       </c>
       <c r="N67">
-        <v>718</v>
+        <v>727</v>
       </c>
       <c r="Q67">
         <v>249</v>
       </c>
       <c r="R67">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="S67">
         <v>879</v>
@@ -6151,7 +6154,7 @@
         <v>1042</v>
       </c>
       <c r="Z67">
-        <v>4922</v>
+        <v>4923</v>
       </c>
       <c r="AC67">
         <v>2191</v>
@@ -6169,7 +6172,7 @@
         <v>192</v>
       </c>
       <c r="AI67">
-        <v>32156</v>
+        <v>32164</v>
       </c>
     </row>
     <row r="68" spans="1:35">
@@ -6192,7 +6195,7 @@
         <v>395</v>
       </c>
       <c r="G68">
-        <v>3530</v>
+        <v>3527</v>
       </c>
       <c r="H68">
         <v>1437</v>
@@ -6204,10 +6207,10 @@
         <v>157</v>
       </c>
       <c r="M68">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N68">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="Q68">
         <v>180</v>
@@ -6219,13 +6222,13 @@
         <v>870</v>
       </c>
       <c r="T68">
-        <v>2196</v>
+        <v>2197</v>
       </c>
       <c r="U68">
         <v>3537</v>
       </c>
       <c r="X68">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="Y68">
         <v>1049</v>
@@ -6249,7 +6252,7 @@
         <v>186</v>
       </c>
       <c r="AI68">
-        <v>32507</v>
+        <v>32502</v>
       </c>
     </row>
     <row r="69" spans="1:35">
@@ -6272,13 +6275,13 @@
         <v>412</v>
       </c>
       <c r="G69">
-        <v>3641</v>
+        <v>3637</v>
       </c>
       <c r="H69">
         <v>1396</v>
       </c>
       <c r="K69">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L69">
         <v>176</v>
@@ -6287,7 +6290,7 @@
         <v>273</v>
       </c>
       <c r="N69">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="Q69">
         <v>155</v>
@@ -6302,16 +6305,16 @@
         <v>2292</v>
       </c>
       <c r="U69">
-        <v>3529</v>
+        <v>3528</v>
       </c>
       <c r="X69">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="Y69">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="Z69">
-        <v>5048</v>
+        <v>5047</v>
       </c>
       <c r="AC69">
         <v>2289</v>
@@ -6323,13 +6326,13 @@
         <v>1453</v>
       </c>
       <c r="AG69">
-        <v>2644</v>
+        <v>2643</v>
       </c>
       <c r="AH69">
         <v>165</v>
       </c>
       <c r="AI69">
-        <v>33362</v>
+        <v>33354</v>
       </c>
     </row>
     <row r="70" spans="1:35">
@@ -6337,25 +6340,25 @@
         <v>103</v>
       </c>
       <c r="B70">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C70">
         <v>118</v>
       </c>
       <c r="D70">
-        <v>3748</v>
+        <v>3749</v>
       </c>
       <c r="E70">
-        <v>3302</v>
+        <v>3303</v>
       </c>
       <c r="F70">
         <v>446</v>
       </c>
       <c r="G70">
-        <v>3679</v>
+        <v>3673</v>
       </c>
       <c r="H70">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="I70">
         <v>951</v>
@@ -6364,7 +6367,7 @@
         <v>503</v>
       </c>
       <c r="K70">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L70">
         <v>171</v>
@@ -6373,10 +6376,10 @@
         <v>276</v>
       </c>
       <c r="N70">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="O70">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="P70">
         <v>510</v>
@@ -6385,7 +6388,7 @@
         <v>234</v>
       </c>
       <c r="R70">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="S70">
         <v>919</v>
@@ -6397,13 +6400,13 @@
         <v>3578</v>
       </c>
       <c r="V70">
-        <v>2964</v>
+        <v>2963</v>
       </c>
       <c r="W70">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="X70">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="Y70">
         <v>1042</v>
@@ -6412,7 +6415,7 @@
         <v>5240</v>
       </c>
       <c r="AA70">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="AB70">
         <v>3532</v>
@@ -6421,13 +6424,13 @@
         <v>2370</v>
       </c>
       <c r="AD70">
-        <v>3653</v>
+        <v>3652</v>
       </c>
       <c r="AE70">
         <v>1473</v>
       </c>
       <c r="AF70">
-        <v>30464</v>
+        <v>30456</v>
       </c>
       <c r="AG70">
         <v>2643</v>
@@ -6436,7 +6439,7 @@
         <v>166</v>
       </c>
       <c r="AI70">
-        <v>33273</v>
+        <v>33265</v>
       </c>
     </row>
     <row r="71" spans="1:35">
@@ -6444,7 +6447,7 @@
         <v>104</v>
       </c>
       <c r="B71">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="C71">
         <v>112</v>
@@ -6459,10 +6462,10 @@
         <v>429</v>
       </c>
       <c r="G71">
-        <v>3832</v>
+        <v>3843</v>
       </c>
       <c r="H71">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="I71">
         <v>989</v>
@@ -6480,10 +6483,10 @@
         <v>307</v>
       </c>
       <c r="N71">
-        <v>814</v>
+        <v>826</v>
       </c>
       <c r="O71">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="P71">
         <v>528</v>
@@ -6492,19 +6495,19 @@
         <v>234</v>
       </c>
       <c r="R71">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="S71">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="T71">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="U71">
-        <v>3768</v>
+        <v>3769</v>
       </c>
       <c r="V71">
-        <v>3132</v>
+        <v>3133</v>
       </c>
       <c r="W71">
         <v>636</v>
@@ -6516,34 +6519,34 @@
         <v>1073</v>
       </c>
       <c r="Z71">
-        <v>5389</v>
+        <v>5391</v>
       </c>
       <c r="AA71">
         <v>1715</v>
       </c>
       <c r="AB71">
-        <v>3675</v>
+        <v>3676</v>
       </c>
       <c r="AC71">
         <v>2439</v>
       </c>
       <c r="AD71">
-        <v>3714</v>
+        <v>3715</v>
       </c>
       <c r="AE71">
         <v>1520</v>
       </c>
       <c r="AF71">
-        <v>31118</v>
+        <v>31130</v>
       </c>
       <c r="AG71">
-        <v>2720</v>
+        <v>2721</v>
       </c>
       <c r="AH71">
         <v>151</v>
       </c>
       <c r="AI71">
-        <v>33988</v>
+        <v>34002</v>
       </c>
     </row>
     <row r="72" spans="1:35">
@@ -6566,7 +6569,7 @@
         <v>415</v>
       </c>
       <c r="G72">
-        <v>3918</v>
+        <v>3913</v>
       </c>
       <c r="H72">
         <v>1536</v>
@@ -6575,7 +6578,7 @@
         <v>1021</v>
       </c>
       <c r="J72">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="K72">
         <v>81</v>
@@ -6587,10 +6590,10 @@
         <v>310</v>
       </c>
       <c r="N72">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="O72">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="P72">
         <v>584</v>
@@ -6605,34 +6608,34 @@
         <v>881</v>
       </c>
       <c r="T72">
-        <v>2282</v>
+        <v>2283</v>
       </c>
       <c r="U72">
-        <v>3821</v>
+        <v>3820</v>
       </c>
       <c r="V72">
-        <v>3173</v>
+        <v>3172</v>
       </c>
       <c r="W72">
         <v>648</v>
       </c>
       <c r="X72">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="Y72">
         <v>1097</v>
       </c>
       <c r="Z72">
-        <v>5462</v>
+        <v>5460</v>
       </c>
       <c r="AA72">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="AB72">
         <v>3712</v>
       </c>
       <c r="AC72">
-        <v>2478</v>
+        <v>2479</v>
       </c>
       <c r="AD72">
         <v>3776</v>
@@ -6641,16 +6644,16 @@
         <v>1556</v>
       </c>
       <c r="AF72">
-        <v>32054</v>
+        <v>32047</v>
       </c>
       <c r="AG72">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="AH72">
         <v>166</v>
       </c>
       <c r="AI72">
-        <v>35026</v>
+        <v>35018</v>
       </c>
     </row>
     <row r="73" spans="1:35">
@@ -6673,7 +6676,7 @@
         <v>387</v>
       </c>
       <c r="G73">
-        <v>3941</v>
+        <v>3938</v>
       </c>
       <c r="H73">
         <v>1558</v>
@@ -6694,10 +6697,10 @@
         <v>321</v>
       </c>
       <c r="N73">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="O73">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="P73">
         <v>593</v>
@@ -6715,10 +6718,10 @@
         <v>2315</v>
       </c>
       <c r="U73">
-        <v>3926</v>
+        <v>3924</v>
       </c>
       <c r="V73">
-        <v>3274</v>
+        <v>3272</v>
       </c>
       <c r="W73">
         <v>653</v>
@@ -6736,28 +6739,28 @@
         <v>1726</v>
       </c>
       <c r="AB73">
-        <v>3809</v>
+        <v>3808</v>
       </c>
       <c r="AC73">
         <v>2518</v>
       </c>
       <c r="AD73">
-        <v>3878</v>
+        <v>3879</v>
       </c>
       <c r="AE73">
         <v>1639</v>
       </c>
       <c r="AF73">
-        <v>32607</v>
+        <v>32600</v>
       </c>
       <c r="AG73">
-        <v>2867</v>
+        <v>2865</v>
       </c>
       <c r="AH73">
         <v>164</v>
       </c>
       <c r="AI73">
-        <v>35638</v>
+        <v>35629</v>
       </c>
     </row>
     <row r="74" spans="1:35">
@@ -6771,22 +6774,22 @@
         <v>248</v>
       </c>
       <c r="D74">
-        <v>4046</v>
+        <v>4048</v>
       </c>
       <c r="E74">
-        <v>3667</v>
+        <v>3668</v>
       </c>
       <c r="F74">
         <v>380</v>
       </c>
       <c r="G74">
-        <v>3988</v>
+        <v>3981</v>
       </c>
       <c r="H74">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="I74">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="J74">
         <v>488</v>
@@ -6801,10 +6804,10 @@
         <v>356</v>
       </c>
       <c r="N74">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="O74">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="P74">
         <v>506</v>
@@ -6813,16 +6816,16 @@
         <v>213</v>
       </c>
       <c r="R74">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="S74">
         <v>829</v>
       </c>
       <c r="T74">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="U74">
-        <v>3995</v>
+        <v>3994</v>
       </c>
       <c r="V74">
         <v>3313</v>
@@ -6831,7 +6834,7 @@
         <v>682</v>
       </c>
       <c r="X74">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="Y74">
         <v>1086</v>
@@ -6849,22 +6852,22 @@
         <v>2555</v>
       </c>
       <c r="AD74">
-        <v>3976</v>
+        <v>3974</v>
       </c>
       <c r="AE74">
         <v>1654</v>
       </c>
       <c r="AF74">
-        <v>32887</v>
+        <v>32881</v>
       </c>
       <c r="AG74">
-        <v>2886</v>
+        <v>2885</v>
       </c>
       <c r="AH74">
         <v>184</v>
       </c>
       <c r="AI74">
-        <v>35958</v>
+        <v>35950</v>
       </c>
     </row>
     <row r="75" spans="1:35">
@@ -6878,7 +6881,7 @@
         <v>251</v>
       </c>
       <c r="D75">
-        <v>4153</v>
+        <v>4152</v>
       </c>
       <c r="E75">
         <v>3764</v>
@@ -6887,16 +6890,16 @@
         <v>388</v>
       </c>
       <c r="G75">
-        <v>4102</v>
+        <v>4115</v>
       </c>
       <c r="H75">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="I75">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="J75">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K75">
         <v>92</v>
@@ -6908,16 +6911,16 @@
         <v>355</v>
       </c>
       <c r="N75">
-        <v>874</v>
+        <v>889</v>
       </c>
       <c r="O75">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="P75">
         <v>532</v>
       </c>
       <c r="Q75">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="R75">
         <v>640</v>
@@ -6926,13 +6929,13 @@
         <v>897</v>
       </c>
       <c r="T75">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="U75">
-        <v>4117</v>
+        <v>4119</v>
       </c>
       <c r="V75">
-        <v>3424</v>
+        <v>3425</v>
       </c>
       <c r="W75">
         <v>694</v>
@@ -6944,34 +6947,34 @@
         <v>1103</v>
       </c>
       <c r="Z75">
-        <v>5587</v>
+        <v>5589</v>
       </c>
       <c r="AA75">
         <v>1715</v>
       </c>
       <c r="AB75">
-        <v>3873</v>
+        <v>3875</v>
       </c>
       <c r="AC75">
         <v>2627</v>
       </c>
       <c r="AD75">
-        <v>3985</v>
+        <v>3986</v>
       </c>
       <c r="AE75">
         <v>1671</v>
       </c>
       <c r="AF75">
-        <v>33604</v>
+        <v>33621</v>
       </c>
       <c r="AG75">
-        <v>2954</v>
+        <v>2958</v>
       </c>
       <c r="AH75">
         <v>165</v>
       </c>
       <c r="AI75">
-        <v>36724</v>
+        <v>36744</v>
       </c>
     </row>
     <row r="76" spans="1:35">
@@ -6985,16 +6988,16 @@
         <v>257</v>
       </c>
       <c r="D76">
-        <v>4141</v>
+        <v>4140</v>
       </c>
       <c r="E76">
-        <v>3776</v>
+        <v>3775</v>
       </c>
       <c r="F76">
         <v>365</v>
       </c>
       <c r="G76">
-        <v>4279</v>
+        <v>4273</v>
       </c>
       <c r="H76">
         <v>1719</v>
@@ -7015,10 +7018,10 @@
         <v>362</v>
       </c>
       <c r="N76">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="O76">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="P76">
         <v>582</v>
@@ -7030,16 +7033,16 @@
         <v>642</v>
       </c>
       <c r="S76">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="T76">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="U76">
-        <v>4202</v>
+        <v>4200</v>
       </c>
       <c r="V76">
-        <v>3486</v>
+        <v>3484</v>
       </c>
       <c r="W76">
         <v>716</v>
@@ -7048,16 +7051,16 @@
         <v>1785</v>
       </c>
       <c r="Y76">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="Z76">
-        <v>5626</v>
+        <v>5625</v>
       </c>
       <c r="AA76">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="AB76">
-        <v>3881</v>
+        <v>3880</v>
       </c>
       <c r="AC76">
         <v>2716</v>
@@ -7066,19 +7069,19 @@
         <v>4068</v>
       </c>
       <c r="AE76">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="AF76">
-        <v>34305</v>
+        <v>34293</v>
       </c>
       <c r="AG76">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="AH76">
         <v>172</v>
       </c>
       <c r="AI76">
-        <v>37482</v>
+        <v>37469</v>
       </c>
     </row>
     <row r="77" spans="1:35">
@@ -7086,7 +7089,7 @@
         <v>110</v>
       </c>
       <c r="B77">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="C77">
         <v>247</v>
@@ -7101,16 +7104,16 @@
         <v>338</v>
       </c>
       <c r="G77">
-        <v>4458</v>
+        <v>4454</v>
       </c>
       <c r="H77">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="I77">
         <v>1236</v>
       </c>
       <c r="J77">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="K77">
         <v>92</v>
@@ -7122,10 +7125,10 @@
         <v>389</v>
       </c>
       <c r="N77">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="O77">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="P77">
         <v>613</v>
@@ -7134,7 +7137,7 @@
         <v>205</v>
       </c>
       <c r="R77">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="S77">
         <v>1012</v>
@@ -7143,28 +7146,28 @@
         <v>2430</v>
       </c>
       <c r="U77">
-        <v>4298</v>
+        <v>4295</v>
       </c>
       <c r="V77">
-        <v>3558</v>
+        <v>3555</v>
       </c>
       <c r="W77">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="X77">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="Y77">
         <v>1124</v>
       </c>
       <c r="Z77">
-        <v>5734</v>
+        <v>5733</v>
       </c>
       <c r="AA77">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="AB77">
-        <v>3951</v>
+        <v>3949</v>
       </c>
       <c r="AC77">
         <v>2812</v>
@@ -7176,16 +7179,16 @@
         <v>1796</v>
       </c>
       <c r="AF77">
-        <v>35125</v>
+        <v>35115</v>
       </c>
       <c r="AG77">
-        <v>3106</v>
+        <v>3103</v>
       </c>
       <c r="AH77">
         <v>197</v>
       </c>
       <c r="AI77">
-        <v>38428</v>
+        <v>38415</v>
       </c>
     </row>
     <row r="78" spans="1:35">
@@ -7199,22 +7202,22 @@
         <v>152</v>
       </c>
       <c r="D78">
-        <v>3870</v>
+        <v>3872</v>
       </c>
       <c r="E78">
-        <v>3548</v>
+        <v>3550</v>
       </c>
       <c r="F78">
         <v>322</v>
       </c>
       <c r="G78">
-        <v>4566</v>
+        <v>4556</v>
       </c>
       <c r="H78">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="I78">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="J78">
         <v>629</v>
@@ -7229,10 +7232,10 @@
         <v>405</v>
       </c>
       <c r="N78">
-        <v>1020</v>
+        <v>1012</v>
       </c>
       <c r="O78">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="P78">
         <v>570</v>
@@ -7247,10 +7250,10 @@
         <v>1069</v>
       </c>
       <c r="T78">
-        <v>2443</v>
+        <v>2445</v>
       </c>
       <c r="U78">
-        <v>4333</v>
+        <v>4332</v>
       </c>
       <c r="V78">
         <v>3570</v>
@@ -7265,34 +7268,34 @@
         <v>1145</v>
       </c>
       <c r="Z78">
-        <v>5836</v>
+        <v>5837</v>
       </c>
       <c r="AA78">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="AB78">
-        <v>4018</v>
+        <v>4017</v>
       </c>
       <c r="AC78">
-        <v>2864</v>
+        <v>2865</v>
       </c>
       <c r="AD78">
-        <v>4298</v>
+        <v>4296</v>
       </c>
       <c r="AE78">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="AF78">
-        <v>35659</v>
+        <v>35652</v>
       </c>
       <c r="AG78">
-        <v>3149</v>
+        <v>3147</v>
       </c>
       <c r="AH78">
         <v>183</v>
       </c>
       <c r="AI78">
-        <v>38991</v>
+        <v>38981</v>
       </c>
     </row>
     <row r="79" spans="1:35">
@@ -7300,31 +7303,31 @@
         <v>112</v>
       </c>
       <c r="B79">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="C79">
         <v>126</v>
       </c>
       <c r="D79">
-        <v>3684</v>
+        <v>3683</v>
       </c>
       <c r="E79">
-        <v>3387</v>
+        <v>3386</v>
       </c>
       <c r="F79">
         <v>297</v>
       </c>
       <c r="G79">
-        <v>4639</v>
+        <v>4653</v>
       </c>
       <c r="H79">
-        <v>1962</v>
+        <v>1959</v>
       </c>
       <c r="I79">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="J79">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="K79">
         <v>90</v>
@@ -7336,70 +7339,70 @@
         <v>385</v>
       </c>
       <c r="N79">
-        <v>1027</v>
+        <v>1045</v>
       </c>
       <c r="O79">
-        <v>432</v>
+        <v>450</v>
       </c>
       <c r="P79">
         <v>595</v>
       </c>
       <c r="Q79">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="R79">
         <v>671</v>
       </c>
       <c r="S79">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="T79">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="U79">
-        <v>4500</v>
+        <v>4504</v>
       </c>
       <c r="V79">
-        <v>3702</v>
+        <v>3706</v>
       </c>
       <c r="W79">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="X79">
         <v>2153</v>
       </c>
       <c r="Y79">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="Z79">
-        <v>5960</v>
+        <v>5964</v>
       </c>
       <c r="AA79">
         <v>1866</v>
       </c>
       <c r="AB79">
-        <v>4094</v>
+        <v>4098</v>
       </c>
       <c r="AC79">
         <v>2942</v>
       </c>
       <c r="AD79">
-        <v>4347</v>
+        <v>4348</v>
       </c>
       <c r="AE79">
         <v>1852</v>
       </c>
       <c r="AF79">
-        <v>36428</v>
+        <v>36450</v>
       </c>
       <c r="AG79">
-        <v>3233</v>
+        <v>3240</v>
       </c>
       <c r="AH79">
         <v>164</v>
       </c>
       <c r="AI79">
-        <v>39825</v>
+        <v>39853</v>
       </c>
     </row>
     <row r="80" spans="1:35">
@@ -7413,22 +7416,22 @@
         <v>130</v>
       </c>
       <c r="D80">
-        <v>3126</v>
+        <v>3125</v>
       </c>
       <c r="E80">
-        <v>2816</v>
+        <v>2815</v>
       </c>
       <c r="F80">
         <v>310</v>
       </c>
       <c r="G80">
-        <v>4734</v>
+        <v>4729</v>
       </c>
       <c r="H80">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="I80">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="J80">
         <v>719</v>
@@ -7443,31 +7446,31 @@
         <v>438</v>
       </c>
       <c r="N80">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="O80">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="P80">
         <v>586</v>
       </c>
       <c r="Q80">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="R80">
         <v>690</v>
       </c>
       <c r="S80">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="T80">
-        <v>2680</v>
+        <v>2678</v>
       </c>
       <c r="U80">
-        <v>4537</v>
+        <v>4533</v>
       </c>
       <c r="V80">
-        <v>3718</v>
+        <v>3714</v>
       </c>
       <c r="W80">
         <v>819</v>
@@ -7479,10 +7482,10 @@
         <v>1141</v>
       </c>
       <c r="Z80">
-        <v>6098</v>
+        <v>6095</v>
       </c>
       <c r="AA80">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="AB80">
         <v>4191</v>
@@ -7491,22 +7494,22 @@
         <v>3031</v>
       </c>
       <c r="AD80">
-        <v>4416</v>
+        <v>4417</v>
       </c>
       <c r="AE80">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="AF80">
-        <v>36501</v>
+        <v>36486</v>
       </c>
       <c r="AG80">
-        <v>3332</v>
+        <v>3331</v>
       </c>
       <c r="AH80">
         <v>183</v>
       </c>
       <c r="AI80">
-        <v>40017</v>
+        <v>39999</v>
       </c>
     </row>
     <row r="81" spans="1:35">
@@ -7514,7 +7517,7 @@
         <v>114</v>
       </c>
       <c r="B81">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="C81">
         <v>196</v>
@@ -7529,16 +7532,16 @@
         <v>321</v>
       </c>
       <c r="G81">
-        <v>4648</v>
+        <v>4645</v>
       </c>
       <c r="H81">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="I81">
         <v>1279</v>
       </c>
       <c r="J81">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="K81">
         <v>83</v>
@@ -7550,10 +7553,10 @@
         <v>452</v>
       </c>
       <c r="N81">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="O81">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="P81">
         <v>573</v>
@@ -7562,40 +7565,40 @@
         <v>210</v>
       </c>
       <c r="R81">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="S81">
         <v>1260</v>
       </c>
       <c r="T81">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="U81">
-        <v>4648</v>
+        <v>4643</v>
       </c>
       <c r="V81">
-        <v>3808</v>
+        <v>3804</v>
       </c>
       <c r="W81">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="X81">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="Y81">
         <v>1166</v>
       </c>
       <c r="Z81">
-        <v>6163</v>
+        <v>6161</v>
       </c>
       <c r="AA81">
         <v>1905</v>
       </c>
       <c r="AB81">
-        <v>4258</v>
+        <v>4255</v>
       </c>
       <c r="AC81">
-        <v>3084</v>
+        <v>3085</v>
       </c>
       <c r="AD81">
         <v>4614</v>
@@ -7604,16 +7607,16 @@
         <v>1932</v>
       </c>
       <c r="AF81">
-        <v>37066</v>
+        <v>37054</v>
       </c>
       <c r="AG81">
-        <v>3395</v>
+        <v>3391</v>
       </c>
       <c r="AH81">
         <v>219</v>
       </c>
       <c r="AI81">
-        <v>40680</v>
+        <v>40664</v>
       </c>
     </row>
     <row r="82" spans="1:35">
@@ -7627,25 +7630,25 @@
         <v>161</v>
       </c>
       <c r="D82">
-        <v>3301</v>
+        <v>3305</v>
       </c>
       <c r="E82">
-        <v>2945</v>
+        <v>2948</v>
       </c>
       <c r="F82">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G82">
-        <v>4720</v>
+        <v>4711</v>
       </c>
       <c r="H82">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="I82">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="J82">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="K82">
         <v>87</v>
@@ -7657,25 +7660,25 @@
         <v>437</v>
       </c>
       <c r="N82">
-        <v>979</v>
+        <v>972</v>
       </c>
       <c r="O82">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="P82">
         <v>548</v>
       </c>
       <c r="Q82">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="R82">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="S82">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="T82">
-        <v>2734</v>
+        <v>2736</v>
       </c>
       <c r="U82">
         <v>4813</v>
@@ -7693,10 +7696,10 @@
         <v>1155</v>
       </c>
       <c r="Z82">
-        <v>6223</v>
+        <v>6226</v>
       </c>
       <c r="AA82">
-        <v>1952</v>
+        <v>1954</v>
       </c>
       <c r="AB82">
         <v>4271</v>
@@ -7705,22 +7708,22 @@
         <v>3115</v>
       </c>
       <c r="AD82">
-        <v>4669</v>
+        <v>4666</v>
       </c>
       <c r="AE82">
         <v>2018</v>
       </c>
       <c r="AF82">
-        <v>37978</v>
+        <v>37973</v>
       </c>
       <c r="AG82">
-        <v>3349</v>
+        <v>3345</v>
       </c>
       <c r="AH82">
         <v>151</v>
       </c>
       <c r="AI82">
-        <v>41478</v>
+        <v>41469</v>
       </c>
     </row>
     <row r="83" spans="1:35">
@@ -7728,31 +7731,31 @@
         <v>116</v>
       </c>
       <c r="B83">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="C83">
         <v>183</v>
       </c>
       <c r="D83">
-        <v>3183</v>
+        <v>3181</v>
       </c>
       <c r="E83">
-        <v>2792</v>
+        <v>2790</v>
       </c>
       <c r="F83">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G83">
-        <v>4603</v>
+        <v>4617</v>
       </c>
       <c r="H83">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="I83">
         <v>1340</v>
       </c>
       <c r="J83">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="K83">
         <v>91</v>
@@ -7764,70 +7767,70 @@
         <v>373</v>
       </c>
       <c r="N83">
-        <v>943</v>
+        <v>960</v>
       </c>
       <c r="O83">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="P83">
         <v>542</v>
       </c>
       <c r="Q83">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="R83">
         <v>705</v>
       </c>
       <c r="S83">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="T83">
         <v>2874</v>
       </c>
       <c r="U83">
-        <v>4809</v>
+        <v>4817</v>
       </c>
       <c r="V83">
-        <v>3944</v>
+        <v>3950</v>
       </c>
       <c r="W83">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="X83">
         <v>2287</v>
       </c>
       <c r="Y83">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="Z83">
-        <v>6245</v>
+        <v>6249</v>
       </c>
       <c r="AA83">
         <v>1948</v>
       </c>
       <c r="AB83">
-        <v>4297</v>
+        <v>4301</v>
       </c>
       <c r="AC83">
         <v>3192</v>
       </c>
       <c r="AD83">
-        <v>4839</v>
+        <v>4841</v>
       </c>
       <c r="AE83">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="AF83">
-        <v>38146</v>
+        <v>38171</v>
       </c>
       <c r="AG83">
-        <v>3392</v>
+        <v>3401</v>
       </c>
       <c r="AH83">
         <v>144</v>
       </c>
       <c r="AI83">
-        <v>41682</v>
+        <v>41716</v>
       </c>
     </row>
     <row r="84" spans="1:35">
@@ -7838,25 +7841,25 @@
         <v>1562</v>
       </c>
       <c r="C84">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D84">
-        <v>3341</v>
+        <v>3339</v>
       </c>
       <c r="E84">
-        <v>2884</v>
+        <v>2883</v>
       </c>
       <c r="F84">
         <v>457</v>
       </c>
       <c r="G84">
-        <v>4616</v>
+        <v>4611</v>
       </c>
       <c r="H84">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="I84">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="J84">
         <v>586</v>
@@ -7871,31 +7874,31 @@
         <v>382</v>
       </c>
       <c r="N84">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="O84">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="P84">
         <v>577</v>
       </c>
       <c r="Q84">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="R84">
         <v>713</v>
       </c>
       <c r="S84">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="T84">
-        <v>2952</v>
+        <v>2947</v>
       </c>
       <c r="U84">
-        <v>4996</v>
+        <v>4989</v>
       </c>
       <c r="V84">
-        <v>4085</v>
+        <v>4078</v>
       </c>
       <c r="W84">
         <v>911</v>
@@ -7904,37 +7907,37 @@
         <v>2210</v>
       </c>
       <c r="Y84">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="Z84">
-        <v>6355</v>
+        <v>6351</v>
       </c>
       <c r="AA84">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="AB84">
-        <v>4368</v>
+        <v>4367</v>
       </c>
       <c r="AC84">
         <v>3258</v>
       </c>
       <c r="AD84">
-        <v>5080</v>
+        <v>5081</v>
       </c>
       <c r="AE84">
         <v>2066</v>
       </c>
       <c r="AF84">
-        <v>39119</v>
+        <v>39096</v>
       </c>
       <c r="AG84">
-        <v>3462</v>
+        <v>3461</v>
       </c>
       <c r="AH84">
         <v>178</v>
       </c>
       <c r="AI84">
-        <v>42760</v>
+        <v>42735</v>
       </c>
     </row>
     <row r="85" spans="1:35">
@@ -7942,13 +7945,13 @@
         <v>118</v>
       </c>
       <c r="B85">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="C85">
         <v>303</v>
       </c>
       <c r="D85">
-        <v>3768</v>
+        <v>3769</v>
       </c>
       <c r="E85">
         <v>3325</v>
@@ -7957,16 +7960,16 @@
         <v>444</v>
       </c>
       <c r="G85">
-        <v>4621</v>
+        <v>4618</v>
       </c>
       <c r="H85">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="I85">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="J85">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="K85">
         <v>95</v>
@@ -7975,52 +7978,52 @@
         <v>296</v>
       </c>
       <c r="M85">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="N85">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="O85">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="P85">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="Q85">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="R85">
         <v>712</v>
       </c>
       <c r="S85">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="T85">
         <v>2936</v>
       </c>
       <c r="U85">
-        <v>5066</v>
+        <v>5060</v>
       </c>
       <c r="V85">
-        <v>4132</v>
+        <v>4128</v>
       </c>
       <c r="W85">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="X85">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="Y85">
         <v>1162</v>
       </c>
       <c r="Z85">
-        <v>6343</v>
+        <v>6340</v>
       </c>
       <c r="AA85">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="AB85">
-        <v>4371</v>
+        <v>4368</v>
       </c>
       <c r="AC85">
         <v>3315</v>
@@ -8032,16 +8035,16 @@
         <v>2073</v>
       </c>
       <c r="AF85">
-        <v>39625</v>
+        <v>39613</v>
       </c>
       <c r="AG85">
-        <v>3518</v>
+        <v>3513</v>
       </c>
       <c r="AH85">
         <v>222</v>
       </c>
       <c r="AI85">
-        <v>43365</v>
+        <v>43347</v>
       </c>
     </row>
     <row r="86" spans="1:35">
@@ -8049,31 +8052,31 @@
         <v>119</v>
       </c>
       <c r="B86">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="C86">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D86">
-        <v>3533</v>
+        <v>3538</v>
       </c>
       <c r="E86">
-        <v>3111</v>
+        <v>3114</v>
       </c>
       <c r="F86">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="G86">
-        <v>4563</v>
+        <v>4553</v>
       </c>
       <c r="H86">
-        <v>2053</v>
+        <v>2050</v>
       </c>
       <c r="I86">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="J86">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="K86">
         <v>95</v>
@@ -8082,34 +8085,34 @@
         <v>279</v>
       </c>
       <c r="M86">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N86">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="O86">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="P86">
         <v>490</v>
       </c>
       <c r="Q86">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="R86">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="S86">
-        <v>1304</v>
+        <v>1307</v>
       </c>
       <c r="T86">
-        <v>2856</v>
+        <v>2861</v>
       </c>
       <c r="U86">
-        <v>5082</v>
+        <v>5084</v>
       </c>
       <c r="V86">
-        <v>4146</v>
+        <v>4148</v>
       </c>
       <c r="W86">
         <v>936</v>
@@ -8118,37 +8121,37 @@
         <v>2110</v>
       </c>
       <c r="Y86">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="Z86">
-        <v>6282</v>
+        <v>6288</v>
       </c>
       <c r="AA86">
-        <v>1967</v>
+        <v>1972</v>
       </c>
       <c r="AB86">
-        <v>4315</v>
+        <v>4316</v>
       </c>
       <c r="AC86">
-        <v>3408</v>
+        <v>3409</v>
       </c>
       <c r="AD86">
-        <v>5126</v>
+        <v>5121</v>
       </c>
       <c r="AE86">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="AF86">
-        <v>39341</v>
+        <v>39342</v>
       </c>
       <c r="AG86">
-        <v>3589</v>
+        <v>3584</v>
       </c>
       <c r="AH86">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AI86">
-        <v>43125</v>
+        <v>43121</v>
       </c>
     </row>
     <row r="87" spans="1:35">
@@ -8156,106 +8159,106 @@
         <v>120</v>
       </c>
       <c r="B87">
-        <v>1451</v>
+        <v>1454</v>
       </c>
       <c r="C87">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D87">
-        <v>4252</v>
+        <v>4248</v>
       </c>
       <c r="E87">
-        <v>3825</v>
+        <v>3822</v>
       </c>
       <c r="F87">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G87">
-        <v>4691</v>
+        <v>4705</v>
       </c>
       <c r="H87">
-        <v>2060</v>
+        <v>2058</v>
       </c>
       <c r="I87">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="J87">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="K87">
         <v>88</v>
       </c>
       <c r="L87">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M87">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N87">
-        <v>930</v>
+        <v>947</v>
       </c>
       <c r="O87">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="P87">
         <v>511</v>
       </c>
       <c r="Q87">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="R87">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="S87">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="T87">
-        <v>2812</v>
+        <v>2814</v>
       </c>
       <c r="U87">
-        <v>5177</v>
+        <v>5190</v>
       </c>
       <c r="V87">
-        <v>4229</v>
+        <v>4239</v>
       </c>
       <c r="W87">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="X87">
         <v>2215</v>
       </c>
       <c r="Y87">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="Z87">
-        <v>6398</v>
+        <v>6401</v>
       </c>
       <c r="AA87">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="AB87">
-        <v>4414</v>
+        <v>4420</v>
       </c>
       <c r="AC87">
-        <v>3508</v>
+        <v>3507</v>
       </c>
       <c r="AD87">
-        <v>5235</v>
+        <v>5240</v>
       </c>
       <c r="AE87">
         <v>2160</v>
       </c>
       <c r="AF87">
-        <v>40611</v>
+        <v>40641</v>
       </c>
       <c r="AG87">
-        <v>3631</v>
+        <v>3643</v>
       </c>
       <c r="AH87">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AI87">
-        <v>44442</v>
+        <v>44482</v>
       </c>
     </row>
     <row r="88" spans="1:35">
@@ -8269,25 +8272,25 @@
         <v>316</v>
       </c>
       <c r="D88">
-        <v>4665</v>
+        <v>4662</v>
       </c>
       <c r="E88">
-        <v>4242</v>
+        <v>4240</v>
       </c>
       <c r="F88">
         <v>422</v>
       </c>
       <c r="G88">
-        <v>4817</v>
+        <v>4810</v>
       </c>
       <c r="H88">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="I88">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="J88">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="K88">
         <v>86</v>
@@ -8299,31 +8302,31 @@
         <v>464</v>
       </c>
       <c r="N88">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="O88">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="P88">
         <v>538</v>
       </c>
       <c r="Q88">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="R88">
         <v>744</v>
       </c>
       <c r="S88">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="T88">
-        <v>2883</v>
+        <v>2875</v>
       </c>
       <c r="U88">
-        <v>5305</v>
+        <v>5293</v>
       </c>
       <c r="V88">
-        <v>4304</v>
+        <v>4292</v>
       </c>
       <c r="W88">
         <v>1000</v>
@@ -8335,34 +8338,34 @@
         <v>1177</v>
       </c>
       <c r="Z88">
-        <v>6615</v>
+        <v>6609</v>
       </c>
       <c r="AA88">
-        <v>2097</v>
+        <v>2093</v>
       </c>
       <c r="AB88">
-        <v>4518</v>
+        <v>4516</v>
       </c>
       <c r="AC88">
         <v>3581</v>
       </c>
       <c r="AD88">
-        <v>5306</v>
+        <v>5308</v>
       </c>
       <c r="AE88">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="AF88">
-        <v>42007</v>
+        <v>41971</v>
       </c>
       <c r="AG88">
-        <v>3706</v>
+        <v>3708</v>
       </c>
       <c r="AH88">
         <v>182</v>
       </c>
       <c r="AI88">
-        <v>45896</v>
+        <v>45861</v>
       </c>
     </row>
     <row r="89" spans="1:35">
@@ -8370,31 +8373,31 @@
         <v>122</v>
       </c>
       <c r="B89">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="C89">
         <v>310</v>
       </c>
       <c r="D89">
-        <v>4868</v>
+        <v>4870</v>
       </c>
       <c r="E89">
-        <v>4427</v>
+        <v>4428</v>
       </c>
       <c r="F89">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G89">
-        <v>4687</v>
+        <v>4684</v>
       </c>
       <c r="H89">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="I89">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="J89">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="K89">
         <v>85</v>
@@ -8403,73 +8406,73 @@
         <v>269</v>
       </c>
       <c r="M89">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="N89">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="O89">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="P89">
         <v>524</v>
       </c>
       <c r="Q89">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="R89">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="S89">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="T89">
-        <v>3013</v>
+        <v>3014</v>
       </c>
       <c r="U89">
-        <v>5454</v>
+        <v>5445</v>
       </c>
       <c r="V89">
-        <v>4419</v>
+        <v>4412</v>
       </c>
       <c r="W89">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="X89">
-        <v>2118</v>
+        <v>2116</v>
       </c>
       <c r="Y89">
         <v>1190</v>
       </c>
       <c r="Z89">
-        <v>6555</v>
+        <v>6551</v>
       </c>
       <c r="AA89">
-        <v>2075</v>
+        <v>2077</v>
       </c>
       <c r="AB89">
-        <v>4479</v>
+        <v>4475</v>
       </c>
       <c r="AC89">
-        <v>3676</v>
+        <v>3678</v>
       </c>
       <c r="AD89">
         <v>5422</v>
       </c>
       <c r="AE89">
-        <v>2194</v>
+        <v>2196</v>
       </c>
       <c r="AF89">
-        <v>42363</v>
+        <v>42353</v>
       </c>
       <c r="AG89">
-        <v>3794</v>
+        <v>3784</v>
       </c>
       <c r="AH89">
         <v>241</v>
       </c>
       <c r="AI89">
-        <v>46397</v>
+        <v>46377</v>
       </c>
     </row>
     <row r="90" spans="1:35">
@@ -8477,31 +8480,31 @@
         <v>123</v>
       </c>
       <c r="B90">
-        <v>1461</v>
+        <v>1458</v>
       </c>
       <c r="C90">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D90">
-        <v>4640</v>
+        <v>4648</v>
       </c>
       <c r="E90">
-        <v>4226</v>
+        <v>4233</v>
       </c>
       <c r="F90">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G90">
-        <v>4855</v>
+        <v>4846</v>
       </c>
       <c r="H90">
-        <v>2106</v>
+        <v>2103</v>
       </c>
       <c r="I90">
-        <v>1456</v>
+        <v>1450</v>
       </c>
       <c r="J90">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="K90">
         <v>88</v>
@@ -8510,73 +8513,73 @@
         <v>269</v>
       </c>
       <c r="M90">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="N90">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="O90">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="P90">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Q90">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="R90">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="S90">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="T90">
-        <v>3057</v>
+        <v>3064</v>
       </c>
       <c r="U90">
-        <v>5591</v>
+        <v>5599</v>
       </c>
       <c r="V90">
-        <v>4547</v>
+        <v>4554</v>
       </c>
       <c r="W90">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="X90">
         <v>2091</v>
       </c>
       <c r="Y90">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="Z90">
-        <v>6780</v>
+        <v>6792</v>
       </c>
       <c r="AA90">
-        <v>2172</v>
+        <v>2180</v>
       </c>
       <c r="AB90">
-        <v>4608</v>
+        <v>4612</v>
       </c>
       <c r="AC90">
-        <v>3771</v>
+        <v>3773</v>
       </c>
       <c r="AD90">
-        <v>5669</v>
+        <v>5658</v>
       </c>
       <c r="AE90">
-        <v>2237</v>
+        <v>2234</v>
       </c>
       <c r="AF90">
-        <v>42918</v>
+        <v>42933</v>
       </c>
       <c r="AG90">
-        <v>3861</v>
+        <v>3853</v>
       </c>
       <c r="AH90">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AI90">
-        <v>46939</v>
+        <v>46946</v>
       </c>
     </row>
     <row r="91" spans="1:35">
@@ -8584,31 +8587,31 @@
         <v>124</v>
       </c>
       <c r="B91">
-        <v>1448</v>
+        <v>1451</v>
       </c>
       <c r="C91">
         <v>215</v>
       </c>
       <c r="D91">
-        <v>4424</v>
+        <v>4416</v>
       </c>
       <c r="E91">
-        <v>3956</v>
+        <v>3951</v>
       </c>
       <c r="F91">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G91">
-        <v>5181</v>
+        <v>5191</v>
       </c>
       <c r="H91">
-        <v>2307</v>
+        <v>2304</v>
       </c>
       <c r="I91">
-        <v>1568</v>
+        <v>1572</v>
       </c>
       <c r="J91">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="K91">
         <v>85</v>
@@ -8617,73 +8620,73 @@
         <v>285</v>
       </c>
       <c r="M91">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N91">
-        <v>947</v>
+        <v>964</v>
       </c>
       <c r="O91">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="P91">
         <v>553</v>
       </c>
       <c r="Q91">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="R91">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="S91">
-        <v>1376</v>
+        <v>1368</v>
       </c>
       <c r="T91">
-        <v>3049</v>
+        <v>3052</v>
       </c>
       <c r="U91">
-        <v>5660</v>
+        <v>5678</v>
       </c>
       <c r="V91">
-        <v>4616</v>
+        <v>4629</v>
       </c>
       <c r="W91">
-        <v>1043</v>
+        <v>1049</v>
       </c>
       <c r="X91">
-        <v>2256</v>
+        <v>2258</v>
       </c>
       <c r="Y91">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="Z91">
-        <v>6957</v>
+        <v>6958</v>
       </c>
       <c r="AA91">
-        <v>2242</v>
+        <v>2239</v>
       </c>
       <c r="AB91">
-        <v>4715</v>
+        <v>4719</v>
       </c>
       <c r="AC91">
-        <v>3897</v>
+        <v>3893</v>
       </c>
       <c r="AD91">
-        <v>5674</v>
+        <v>5684</v>
       </c>
       <c r="AE91">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="AF91">
-        <v>43579</v>
+        <v>43604</v>
       </c>
       <c r="AG91">
-        <v>3925</v>
+        <v>3941</v>
       </c>
       <c r="AH91">
         <v>201</v>
       </c>
       <c r="AI91">
-        <v>47705</v>
+        <v>47745</v>
       </c>
     </row>
     <row r="92" spans="1:35">
@@ -8691,106 +8694,106 @@
         <v>125</v>
       </c>
       <c r="B92">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="C92">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D92">
-        <v>4406</v>
+        <v>4403</v>
       </c>
       <c r="E92">
-        <v>3920</v>
+        <v>3917</v>
       </c>
       <c r="F92">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G92">
-        <v>5125</v>
+        <v>5117</v>
       </c>
       <c r="H92">
         <v>2224</v>
       </c>
       <c r="I92">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="J92">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="K92">
         <v>77</v>
       </c>
       <c r="L92">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M92">
         <v>601</v>
       </c>
       <c r="N92">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="O92">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="P92">
         <v>568</v>
       </c>
       <c r="Q92">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="R92">
         <v>739</v>
       </c>
       <c r="S92">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="T92">
-        <v>3094</v>
+        <v>3081</v>
       </c>
       <c r="U92">
-        <v>5654</v>
+        <v>5634</v>
       </c>
       <c r="V92">
-        <v>4588</v>
+        <v>4568</v>
       </c>
       <c r="W92">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="X92">
         <v>2197</v>
       </c>
       <c r="Y92">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="Z92">
-        <v>6963</v>
+        <v>6954</v>
       </c>
       <c r="AA92">
-        <v>2236</v>
+        <v>2230</v>
       </c>
       <c r="AB92">
-        <v>4727</v>
+        <v>4724</v>
       </c>
       <c r="AC92">
-        <v>3966</v>
+        <v>3964</v>
       </c>
       <c r="AD92">
-        <v>5768</v>
+        <v>5770</v>
       </c>
       <c r="AE92">
-        <v>2291</v>
+        <v>2292</v>
       </c>
       <c r="AF92">
-        <v>43670</v>
+        <v>43615</v>
       </c>
       <c r="AG92">
-        <v>4020</v>
+        <v>4028</v>
       </c>
       <c r="AH92">
         <v>196</v>
       </c>
       <c r="AI92">
-        <v>47886</v>
+        <v>47839</v>
       </c>
     </row>
     <row r="93" spans="1:35">
@@ -8798,31 +8801,31 @@
         <v>126</v>
       </c>
       <c r="B93">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="C93">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D93">
-        <v>4645</v>
+        <v>4648</v>
       </c>
       <c r="E93">
-        <v>4177</v>
+        <v>4179</v>
       </c>
       <c r="F93">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="G93">
-        <v>5048</v>
+        <v>5049</v>
       </c>
       <c r="H93">
-        <v>2159</v>
+        <v>2162</v>
       </c>
       <c r="I93">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="J93">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="K93">
         <v>75</v>
@@ -8834,70 +8837,70 @@
         <v>569</v>
       </c>
       <c r="N93">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="O93">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="P93">
         <v>574</v>
       </c>
       <c r="Q93">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="R93">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="S93">
-        <v>1316</v>
+        <v>1321</v>
       </c>
       <c r="T93">
-        <v>3202</v>
+        <v>3203</v>
       </c>
       <c r="U93">
-        <v>5695</v>
+        <v>5683</v>
       </c>
       <c r="V93">
-        <v>4587</v>
+        <v>4578</v>
       </c>
       <c r="W93">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="X93">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="Y93">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="Z93">
-        <v>6991</v>
+        <v>6988</v>
       </c>
       <c r="AA93">
-        <v>2195</v>
+        <v>2197</v>
       </c>
       <c r="AB93">
-        <v>4796</v>
+        <v>4791</v>
       </c>
       <c r="AC93">
-        <v>3982</v>
+        <v>3986</v>
       </c>
       <c r="AD93">
         <v>5889</v>
       </c>
       <c r="AE93">
-        <v>2318</v>
+        <v>2322</v>
       </c>
       <c r="AF93">
-        <v>44216</v>
+        <v>44215</v>
       </c>
       <c r="AG93">
-        <v>4062</v>
+        <v>4046</v>
       </c>
       <c r="AH93">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AI93">
-        <v>48551</v>
+        <v>48534</v>
       </c>
     </row>
     <row r="94" spans="1:35">
@@ -8905,106 +8908,106 @@
         <v>127</v>
       </c>
       <c r="B94">
-        <v>1514</v>
+        <v>1507</v>
       </c>
       <c r="C94">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D94">
-        <v>4280</v>
+        <v>4289</v>
       </c>
       <c r="E94">
-        <v>3843</v>
+        <v>3851</v>
       </c>
       <c r="F94">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="G94">
-        <v>5101</v>
+        <v>5093</v>
       </c>
       <c r="H94">
-        <v>2293</v>
+        <v>2290</v>
       </c>
       <c r="I94">
-        <v>1528</v>
+        <v>1518</v>
       </c>
       <c r="J94">
-        <v>764</v>
+        <v>772</v>
       </c>
       <c r="K94">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L94">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M94">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="N94">
-        <v>987</v>
+        <v>979</v>
       </c>
       <c r="O94">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="P94">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="Q94">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="R94">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="S94">
-        <v>1311</v>
+        <v>1321</v>
       </c>
       <c r="T94">
-        <v>3288</v>
+        <v>3298</v>
       </c>
       <c r="U94">
-        <v>5714</v>
+        <v>5729</v>
       </c>
       <c r="V94">
-        <v>4584</v>
+        <v>4601</v>
       </c>
       <c r="W94">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="X94">
         <v>2242</v>
       </c>
       <c r="Y94">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="Z94">
-        <v>7068</v>
+        <v>7084</v>
       </c>
       <c r="AA94">
-        <v>2142</v>
+        <v>2152</v>
       </c>
       <c r="AB94">
-        <v>4926</v>
+        <v>4932</v>
       </c>
       <c r="AC94">
-        <v>3971</v>
+        <v>3975</v>
       </c>
       <c r="AD94">
-        <v>6052</v>
+        <v>6033</v>
       </c>
       <c r="AE94">
-        <v>2347</v>
+        <v>2340</v>
       </c>
       <c r="AF94">
-        <v>44308</v>
+        <v>44332</v>
       </c>
       <c r="AG94">
-        <v>3927</v>
+        <v>3916</v>
       </c>
       <c r="AH94">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AI94">
-        <v>48415</v>
+        <v>48429</v>
       </c>
     </row>
     <row r="95" spans="1:35">
@@ -9012,106 +9015,106 @@
         <v>128</v>
       </c>
       <c r="B95">
-        <v>1434</v>
+        <v>1440</v>
       </c>
       <c r="C95">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D95">
-        <v>4344</v>
+        <v>4334</v>
       </c>
       <c r="E95">
-        <v>3843</v>
+        <v>3835</v>
       </c>
       <c r="F95">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G95">
-        <v>5078</v>
+        <v>5088</v>
       </c>
       <c r="H95">
-        <v>2348</v>
+        <v>2346</v>
       </c>
       <c r="I95">
-        <v>1591</v>
+        <v>1600</v>
       </c>
       <c r="J95">
-        <v>757</v>
+        <v>746</v>
       </c>
       <c r="K95">
         <v>79</v>
       </c>
       <c r="L95">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M95">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N95">
-        <v>907</v>
+        <v>924</v>
       </c>
       <c r="O95">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="P95">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="Q95">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="R95">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="S95">
-        <v>1413</v>
+        <v>1401</v>
       </c>
       <c r="T95">
-        <v>3387</v>
+        <v>3392</v>
       </c>
       <c r="U95">
-        <v>5729</v>
+        <v>5749</v>
       </c>
       <c r="V95">
-        <v>4592</v>
+        <v>4606</v>
       </c>
       <c r="W95">
-        <v>1136</v>
+        <v>1143</v>
       </c>
       <c r="X95">
-        <v>2448</v>
+        <v>2450</v>
       </c>
       <c r="Y95">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="Z95">
-        <v>7241</v>
+        <v>7239</v>
       </c>
       <c r="AA95">
-        <v>2148</v>
+        <v>2143</v>
       </c>
       <c r="AB95">
-        <v>5094</v>
+        <v>5096</v>
       </c>
       <c r="AC95">
-        <v>4090</v>
+        <v>4082</v>
       </c>
       <c r="AD95">
-        <v>6115</v>
+        <v>6135</v>
       </c>
       <c r="AE95">
-        <v>2385</v>
+        <v>2383</v>
       </c>
       <c r="AF95">
-        <v>45092</v>
+        <v>45119</v>
       </c>
       <c r="AG95">
-        <v>4031</v>
+        <v>4052</v>
       </c>
       <c r="AH95">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AI95">
-        <v>49301</v>
+        <v>49347</v>
       </c>
     </row>
     <row r="96" spans="1:35">
@@ -9119,106 +9122,106 @@
         <v>129</v>
       </c>
       <c r="B96">
-        <v>1394</v>
+        <v>1397</v>
       </c>
       <c r="C96">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D96">
-        <v>4540</v>
+        <v>4536</v>
       </c>
       <c r="E96">
-        <v>4069</v>
+        <v>4066</v>
       </c>
       <c r="F96">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G96">
-        <v>5002</v>
+        <v>4994</v>
       </c>
       <c r="H96">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="I96">
-        <v>1559</v>
+        <v>1561</v>
       </c>
       <c r="J96">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="K96">
         <v>75</v>
       </c>
       <c r="L96">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M96">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N96">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="O96">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="P96">
         <v>583</v>
       </c>
       <c r="Q96">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="R96">
         <v>800</v>
       </c>
       <c r="S96">
-        <v>1509</v>
+        <v>1504</v>
       </c>
       <c r="T96">
-        <v>3472</v>
+        <v>3451</v>
       </c>
       <c r="U96">
-        <v>5708</v>
+        <v>5681</v>
       </c>
       <c r="V96">
-        <v>4531</v>
+        <v>4505</v>
       </c>
       <c r="W96">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="X96">
         <v>2460</v>
       </c>
       <c r="Y96">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="Z96">
-        <v>7335</v>
+        <v>7323</v>
       </c>
       <c r="AA96">
-        <v>2175</v>
+        <v>2167</v>
       </c>
       <c r="AB96">
-        <v>5160</v>
+        <v>5156</v>
       </c>
       <c r="AC96">
-        <v>4143</v>
+        <v>4140</v>
       </c>
       <c r="AD96">
-        <v>6182</v>
+        <v>6184</v>
       </c>
       <c r="AE96">
-        <v>2403</v>
+        <v>2406</v>
       </c>
       <c r="AF96">
-        <v>45629</v>
+        <v>45556</v>
       </c>
       <c r="AG96">
-        <v>4106</v>
+        <v>4120</v>
       </c>
       <c r="AH96">
         <v>204</v>
       </c>
       <c r="AI96">
-        <v>49939</v>
+        <v>49880</v>
       </c>
     </row>
     <row r="97" spans="1:35">
@@ -9226,31 +9229,31 @@
         <v>130</v>
       </c>
       <c r="B97">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="C97">
         <v>417</v>
       </c>
       <c r="D97">
-        <v>4678</v>
+        <v>4682</v>
       </c>
       <c r="E97">
-        <v>4180</v>
+        <v>4183</v>
       </c>
       <c r="F97">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="G97">
-        <v>4781</v>
+        <v>4783</v>
       </c>
       <c r="H97">
-        <v>2149</v>
+        <v>2151</v>
       </c>
       <c r="I97">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="J97">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="K97">
         <v>60</v>
@@ -9259,73 +9262,73 @@
         <v>280</v>
       </c>
       <c r="M97">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="N97">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="O97">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="P97">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="Q97">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="R97">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="S97">
-        <v>1516</v>
+        <v>1524</v>
       </c>
       <c r="T97">
-        <v>3476</v>
+        <v>3478</v>
       </c>
       <c r="U97">
-        <v>5368</v>
+        <v>5353</v>
       </c>
       <c r="V97">
-        <v>4288</v>
+        <v>4277</v>
       </c>
       <c r="W97">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="X97">
-        <v>2146</v>
+        <v>2144</v>
       </c>
       <c r="Y97">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="Z97">
-        <v>7262</v>
+        <v>7260</v>
       </c>
       <c r="AA97">
-        <v>2152</v>
+        <v>2154</v>
       </c>
       <c r="AB97">
-        <v>5110</v>
+        <v>5106</v>
       </c>
       <c r="AC97">
-        <v>4073</v>
+        <v>4078</v>
       </c>
       <c r="AD97">
-        <v>6025</v>
+        <v>6022</v>
       </c>
       <c r="AE97">
-        <v>2447</v>
+        <v>2453</v>
       </c>
       <c r="AF97">
-        <v>44747</v>
+        <v>44752</v>
       </c>
       <c r="AG97">
-        <v>3927</v>
+        <v>3905</v>
       </c>
       <c r="AH97">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AI97">
-        <v>48848</v>
+        <v>48831</v>
       </c>
     </row>
     <row r="98" spans="1:35">
@@ -9333,106 +9336,106 @@
         <v>131</v>
       </c>
       <c r="B98">
-        <v>1669</v>
+        <v>1654</v>
       </c>
       <c r="C98">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D98">
-        <v>4995</v>
+        <v>5009</v>
       </c>
       <c r="E98">
-        <v>4429</v>
+        <v>4440</v>
       </c>
       <c r="F98">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="G98">
-        <v>5088</v>
+        <v>5073</v>
       </c>
       <c r="H98">
-        <v>2331</v>
+        <v>2322</v>
       </c>
       <c r="I98">
-        <v>1636</v>
+        <v>1621</v>
       </c>
       <c r="J98">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="K98">
         <v>54</v>
       </c>
       <c r="L98">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M98">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="N98">
-        <v>1013</v>
+        <v>1003</v>
       </c>
       <c r="O98">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="P98">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="Q98">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="R98">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="S98">
-        <v>1510</v>
+        <v>1527</v>
       </c>
       <c r="T98">
-        <v>3534</v>
+        <v>3546</v>
       </c>
       <c r="U98">
-        <v>5543</v>
+        <v>5566</v>
       </c>
       <c r="V98">
-        <v>4472</v>
+        <v>4496</v>
       </c>
       <c r="W98">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="X98">
         <v>2176</v>
       </c>
       <c r="Y98">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="Z98">
-        <v>7517</v>
+        <v>7538</v>
       </c>
       <c r="AA98">
-        <v>2230</v>
+        <v>2243</v>
       </c>
       <c r="AB98">
-        <v>5287</v>
+        <v>5295</v>
       </c>
       <c r="AC98">
-        <v>4130</v>
+        <v>4136</v>
       </c>
       <c r="AD98">
-        <v>6310</v>
+        <v>6281</v>
       </c>
       <c r="AE98">
-        <v>2456</v>
+        <v>2447</v>
       </c>
       <c r="AF98">
-        <v>46282</v>
+        <v>46307</v>
       </c>
       <c r="AG98">
-        <v>4008</v>
+        <v>3991</v>
       </c>
       <c r="AH98">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AI98">
-        <v>50541</v>
+        <v>50551</v>
       </c>
     </row>
     <row r="99" spans="1:35">
@@ -9440,31 +9443,31 @@
         <v>132</v>
       </c>
       <c r="B99">
-        <v>1719</v>
+        <v>1729</v>
       </c>
       <c r="C99">
         <v>178</v>
       </c>
       <c r="D99">
-        <v>6137</v>
+        <v>6118</v>
       </c>
       <c r="E99">
-        <v>5464</v>
+        <v>5450</v>
       </c>
       <c r="F99">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="G99">
-        <v>4867</v>
+        <v>4888</v>
       </c>
       <c r="H99">
-        <v>2271</v>
+        <v>2276</v>
       </c>
       <c r="I99">
-        <v>1628</v>
+        <v>1643</v>
       </c>
       <c r="J99">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="K99">
         <v>34</v>
@@ -9473,73 +9476,73 @@
         <v>259</v>
       </c>
       <c r="M99">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N99">
-        <v>1026</v>
+        <v>1049</v>
       </c>
       <c r="O99">
-        <v>487</v>
+        <v>507</v>
       </c>
       <c r="P99">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="Q99">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="R99">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="S99">
-        <v>1454</v>
+        <v>1437</v>
       </c>
       <c r="T99">
-        <v>2750</v>
+        <v>2759</v>
       </c>
       <c r="U99">
-        <v>4442</v>
+        <v>4455</v>
       </c>
       <c r="V99">
-        <v>3884</v>
+        <v>3893</v>
       </c>
       <c r="W99">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="X99">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="Y99">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="Z99">
-        <v>6814</v>
+        <v>6808</v>
       </c>
       <c r="AA99">
-        <v>2169</v>
+        <v>2163</v>
       </c>
       <c r="AB99">
         <v>4645</v>
       </c>
       <c r="AC99">
-        <v>3920</v>
+        <v>3912</v>
       </c>
       <c r="AD99">
-        <v>5505</v>
+        <v>5542</v>
       </c>
       <c r="AE99">
-        <v>2457</v>
+        <v>2455</v>
       </c>
       <c r="AF99">
-        <v>43085</v>
+        <v>43124</v>
       </c>
       <c r="AG99">
-        <v>3306</v>
+        <v>3327</v>
       </c>
       <c r="AH99">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AI99">
-        <v>46661</v>
+        <v>46719</v>
       </c>
     </row>
     <row r="100" spans="1:35">
@@ -9547,67 +9550,67 @@
         <v>133</v>
       </c>
       <c r="B100">
-        <v>1689</v>
+        <v>1695</v>
       </c>
       <c r="C100">
         <v>245</v>
       </c>
       <c r="D100">
-        <v>6690</v>
+        <v>6685</v>
       </c>
       <c r="E100">
-        <v>6087</v>
+        <v>6082</v>
       </c>
       <c r="F100">
         <v>603</v>
       </c>
       <c r="G100">
-        <v>4937</v>
+        <v>4925</v>
       </c>
       <c r="H100">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="I100">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="J100">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="K100">
         <v>46</v>
       </c>
       <c r="L100">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M100">
         <v>392</v>
       </c>
       <c r="N100">
-        <v>1056</v>
+        <v>1048</v>
       </c>
       <c r="O100">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="P100">
         <v>609</v>
       </c>
       <c r="Q100">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="R100">
         <v>774</v>
       </c>
       <c r="S100">
-        <v>1527</v>
+        <v>1517</v>
       </c>
       <c r="T100">
-        <v>2505</v>
+        <v>2485</v>
       </c>
       <c r="U100">
-        <v>5575</v>
+        <v>5539</v>
       </c>
       <c r="V100">
-        <v>4897</v>
+        <v>4862</v>
       </c>
       <c r="W100">
         <v>678</v>
@@ -9616,37 +9619,37 @@
         <v>1958</v>
       </c>
       <c r="Y100">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="Z100">
-        <v>6964</v>
+        <v>6949</v>
       </c>
       <c r="AA100">
-        <v>2163</v>
+        <v>2153</v>
       </c>
       <c r="AB100">
-        <v>4801</v>
+        <v>4796</v>
       </c>
       <c r="AC100">
-        <v>3916</v>
+        <v>3913</v>
       </c>
       <c r="AD100">
-        <v>5974</v>
+        <v>5973</v>
       </c>
       <c r="AE100">
-        <v>2479</v>
+        <v>2483</v>
       </c>
       <c r="AF100">
-        <v>45490</v>
+        <v>45398</v>
       </c>
       <c r="AG100">
-        <v>3963</v>
+        <v>3981</v>
       </c>
       <c r="AH100">
         <v>181</v>
       </c>
       <c r="AI100">
-        <v>49634</v>
+        <v>49560</v>
       </c>
     </row>
     <row r="101" spans="1:35">
@@ -9654,31 +9657,31 @@
         <v>134</v>
       </c>
       <c r="B101">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="C101">
         <v>211</v>
       </c>
       <c r="D101">
-        <v>7017</v>
+        <v>7025</v>
       </c>
       <c r="E101">
-        <v>6327</v>
+        <v>6333</v>
       </c>
       <c r="F101">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="G101">
-        <v>4939</v>
+        <v>4941</v>
       </c>
       <c r="H101">
-        <v>2147</v>
+        <v>2149</v>
       </c>
       <c r="I101">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="J101">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="K101">
         <v>65</v>
@@ -9687,73 +9690,73 @@
         <v>300</v>
       </c>
       <c r="M101">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="N101">
-        <v>964</v>
+        <v>958</v>
       </c>
       <c r="O101">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="P101">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="Q101">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="R101">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="S101">
-        <v>1606</v>
+        <v>1616</v>
       </c>
       <c r="T101">
-        <v>3171</v>
+        <v>3175</v>
       </c>
       <c r="U101">
-        <v>6188</v>
+        <v>6167</v>
       </c>
       <c r="V101">
-        <v>5309</v>
+        <v>5292</v>
       </c>
       <c r="W101">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="X101">
-        <v>2318</v>
+        <v>2315</v>
       </c>
       <c r="Y101">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="Z101">
         <v>7282</v>
       </c>
       <c r="AA101">
-        <v>2260</v>
+        <v>2263</v>
       </c>
       <c r="AB101">
-        <v>5022</v>
+        <v>5019</v>
       </c>
       <c r="AC101">
-        <v>4064</v>
+        <v>4069</v>
       </c>
       <c r="AD101">
-        <v>6569</v>
+        <v>6561</v>
       </c>
       <c r="AE101">
-        <v>2509</v>
+        <v>2516</v>
       </c>
       <c r="AF101">
-        <v>48691</v>
+        <v>48697</v>
       </c>
       <c r="AG101">
-        <v>4294</v>
+        <v>4263</v>
       </c>
       <c r="AH101">
         <v>200</v>
       </c>
       <c r="AI101">
-        <v>53185</v>
+        <v>53160</v>
       </c>
     </row>
     <row r="102" spans="1:35">
@@ -9761,106 +9764,213 @@
         <v>135</v>
       </c>
       <c r="B102">
-        <v>1715</v>
+        <v>1709</v>
       </c>
       <c r="C102">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D102">
-        <v>8278</v>
+        <v>8530</v>
       </c>
       <c r="E102">
-        <v>7546</v>
+        <v>7799</v>
       </c>
       <c r="F102">
         <v>731</v>
       </c>
       <c r="G102">
-        <v>5240</v>
+        <v>5256</v>
       </c>
       <c r="H102">
-        <v>2315</v>
+        <v>2343</v>
       </c>
       <c r="I102">
-        <v>1608</v>
+        <v>1596</v>
       </c>
       <c r="J102">
-        <v>707</v>
+        <v>747</v>
       </c>
       <c r="K102">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L102">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="M102">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="N102">
-        <v>1059</v>
+        <v>1023</v>
       </c>
       <c r="O102">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="P102">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="Q102">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="R102">
-        <v>820</v>
+        <v>835</v>
       </c>
       <c r="S102">
-        <v>1537</v>
+        <v>1551</v>
       </c>
       <c r="T102">
-        <v>3287</v>
+        <v>3333</v>
       </c>
       <c r="U102">
-        <v>6447</v>
+        <v>6426</v>
       </c>
       <c r="V102">
-        <v>5530</v>
+        <v>5511</v>
       </c>
       <c r="W102">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="X102">
-        <v>2395</v>
+        <v>2389</v>
       </c>
       <c r="Y102">
-        <v>1116</v>
+        <v>1133</v>
       </c>
       <c r="Z102">
-        <v>7588</v>
+        <v>7628</v>
       </c>
       <c r="AA102">
-        <v>2386</v>
+        <v>2401</v>
       </c>
       <c r="AB102">
-        <v>5201</v>
+        <v>5227</v>
       </c>
       <c r="AC102">
-        <v>4148</v>
+        <v>4161</v>
       </c>
       <c r="AD102">
-        <v>6817</v>
+        <v>6756</v>
       </c>
       <c r="AE102">
-        <v>2516</v>
+        <v>2533</v>
       </c>
       <c r="AF102">
-        <v>51272</v>
+        <v>51591</v>
       </c>
       <c r="AG102">
-        <v>4480</v>
+        <v>4421</v>
       </c>
       <c r="AH102">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AI102">
-        <v>55946</v>
+        <v>56204</v>
+      </c>
+    </row>
+    <row r="103" spans="1:35">
+      <c r="A103" t="s">
+        <v>136</v>
+      </c>
+      <c r="B103">
+        <v>1739</v>
+      </c>
+      <c r="C103">
+        <v>161</v>
+      </c>
+      <c r="D103">
+        <v>9092</v>
+      </c>
+      <c r="E103">
+        <v>8225</v>
+      </c>
+      <c r="F103">
+        <v>867</v>
+      </c>
+      <c r="G103">
+        <v>5679</v>
+      </c>
+      <c r="H103">
+        <v>2504</v>
+      </c>
+      <c r="I103">
+        <v>1682</v>
+      </c>
+      <c r="J103">
+        <v>822</v>
+      </c>
+      <c r="K103">
+        <v>62</v>
+      </c>
+      <c r="L103">
+        <v>392</v>
+      </c>
+      <c r="M103">
+        <v>436</v>
+      </c>
+      <c r="N103">
+        <v>1138</v>
+      </c>
+      <c r="O103">
+        <v>416</v>
+      </c>
+      <c r="P103">
+        <v>722</v>
+      </c>
+      <c r="Q103">
+        <v>313</v>
+      </c>
+      <c r="R103">
+        <v>835</v>
+      </c>
+      <c r="S103">
+        <v>1555</v>
+      </c>
+      <c r="T103">
+        <v>3439</v>
+      </c>
+      <c r="U103">
+        <v>7095</v>
+      </c>
+      <c r="V103">
+        <v>6105</v>
+      </c>
+      <c r="W103">
+        <v>990</v>
+      </c>
+      <c r="X103">
+        <v>2244</v>
+      </c>
+      <c r="Y103">
+        <v>1118</v>
+      </c>
+      <c r="Z103">
+        <v>7847</v>
+      </c>
+      <c r="AA103">
+        <v>2481</v>
+      </c>
+      <c r="AB103">
+        <v>5366</v>
+      </c>
+      <c r="AC103">
+        <v>4162</v>
+      </c>
+      <c r="AD103">
+        <v>6799</v>
+      </c>
+      <c r="AE103">
+        <v>2561</v>
+      </c>
+      <c r="AF103">
+        <v>53491</v>
+      </c>
+      <c r="AG103">
+        <v>4766</v>
+      </c>
+      <c r="AH103">
+        <v>221</v>
+      </c>
+      <c r="AI103">
+        <v>58478</v>
       </c>
     </row>
   </sheetData>
